--- a/biology/Botanique/Stachys_germanica/Stachys_germanica.xlsx
+++ b/biology/Botanique/Stachys_germanica/Stachys_germanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys germanica, l'Épiaire blanche, Épiaire d'Allemagne ou Sauge molle est une plante herbacée de la famille des Lamiacées.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haute de 40 à 80 cm, c'est une plante vivace ou bisannuelle, densément velue, soyeuse-blanchâtre, aux tiges laineuses, dressées ; ses feuilles sont blanc-verdâtre, ridées, aux nervures en réseau, régulièrement crénelées, les inférieures ovales-oblongues, les supérieures lancéolées. La plante est inodore (ou presque) au froissement.
-Les fleurs sont roses, disposées en verticilles rapprochés, les inférieurs seuls sont écartés (photo) ; le calice est très laineux, à dents inégales, triangulaires, 3 fois plus courtes que le tube ; la corolle présente un tube de la même longueur que le calice, la lèvre supérieure laineuse de la corolle émerge[1]. Floraison de juin à septembre selon les régions.
+Les fleurs sont roses, disposées en verticilles rapprochés, les inférieurs seuls sont écartés (photo) ; le calice est très laineux, à dents inégales, triangulaires, 3 fois plus courtes que le tube ; la corolle présente un tube de la même longueur que le calice, la lèvre supérieure laineuse de la corolle émerge. Floraison de juin à septembre selon les régions.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lieux incultes, surtout calcaires, ensoleillés, dans presque toute la France et en Corse.
 </t>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe centrale et méridionale, Caucase, îles Canaries ; Asie occidentale ; Maroc ; signalée très rare et en régression dans le sud de la Belgique[2]; au Royaume-Uni, elle est rare, intégralement protégée et atteint sa limite nord de dispersion[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe centrale et méridionale, Caucase, îles Canaries ; Asie occidentale ; Maroc ; signalée très rare et en régression dans le sud de la Belgique; au Royaume-Uni, elle est rare, intégralement protégée et atteint sa limite nord de dispersion.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plusieurs sous-espèces sont décrites :
 Stachys germanica subsp. albereana
@@ -643,7 +663,9 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Stachys byzantina, l'épiaire de Byzance ou épiaire laineuse, plus intensément blanche, est cultivée en France à titre ornemental.</t>
         </is>
